--- a/testdata/nirvi_a_ed.xlsx
+++ b/testdata/nirvi_a_ed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="951">
   <si>
     <t>Финский</t>
   </si>
@@ -4312,9 +4312,6 @@
     <t>apuri | apulainen</t>
   </si>
   <si>
-    <t>apo*1</t>
-  </si>
-  <si>
     <t>sattua "(tulemaan, olemaan, saamaan)"</t>
   </si>
   <si>
@@ -4348,15 +4345,9 @@
     <t>olla halukas | himoita</t>
   </si>
   <si>
-    <t>verkkokävyn*1</t>
-  </si>
-  <si>
     <t>setolkkahihna, joka kannattaa aisoja | aisojen kannatinhihna</t>
   </si>
   <si>
-    <t>mätäs*1</t>
-  </si>
-  <si>
     <t>ajaa | karkottaa</t>
   </si>
   <si>
@@ -4366,9 +4357,6 @@
     <t>tuulesta | vedestä</t>
   </si>
   <si>
-    <t>koota*1</t>
-  </si>
-  <si>
     <t>vanha nainen | mummo</t>
   </si>
   <si>
@@ -4381,82 +4369,9 @@
     <t>huonontua | tyyntyä "(tuulesta)"</t>
   </si>
   <si>
-    <r>
-      <t>*1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ovi on aBoi auGi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — apo auki</t>
-    </r>
-  </si>
-  <si>
     <t>tallessa | säilyneenä | ehjänä</t>
   </si>
   <si>
-    <t>aaltoisa*1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">*1: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">alloGaZ meri </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>— aaltoisa meri</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t>alaskintaan t. sukan suu, teen yhteydess</t>
     </r>
@@ -4478,39 +4393,57 @@
     <t>makuualus | makuukuivike</t>
   </si>
   <si>
-    <r>
-      <t>alus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">*1: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+    <t>laivan, kaljaasin omistaja | laivan rakentaja</t>
+  </si>
+  <si>
+    <t>taikinaa | alusta</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vatsamato </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>kaDon alukseD.</t>
+      <t>| heisimato</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>iske</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ä "(ukkosesta)"</t>
+    </r>
+  </si>
+  <si>
+    <t>antaa periksi | antautua</t>
+  </si>
+  <si>
+    <r>
+      <t>pehmet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ä </t>
     </r>
     <r>
       <rPr>
@@ -4520,7 +4453,172 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> (Kev</t>
+      <t>| esim. raudasta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> | savimaasta | raakanahasta jne. puhuen</t>
+    </r>
+  </si>
+  <si>
+    <t>tehdä araksi | pelätellä</t>
+  </si>
+  <si>
+    <r>
+      <t>pehmeä, helposti katkeava, pieni- ja valkokukkainen kasvi, jota mm. sy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ötettiin sialle "(? Stellaria media)"</t>
+    </r>
+  </si>
+  <si>
+    <t>hyvä | ystävällinen</t>
+  </si>
+  <si>
+    <t>rakasti | lempi</t>
+  </si>
+  <si>
+    <r>
+      <t>jonkinlainen p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>äälystakki | kauhtana</t>
+    </r>
+  </si>
+  <si>
+    <t>arka | pelokas</t>
+  </si>
+  <si>
+    <t>aroittaa | pelättää</t>
+  </si>
+  <si>
+    <r>
+      <t>kalastusvenekunta, tav. n. 6-7 miest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ä | nuottayhtiö</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ymm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ärtävä | älykäs | ymmärtäväinen</t>
+    </r>
+  </si>
+  <si>
+    <t>asti | saakka</t>
+  </si>
+  <si>
+    <t>asia | homma | työ | työkalu</t>
+  </si>
+  <si>
+    <t>karhi | äes</t>
+  </si>
+  <si>
+    <t>äestää | karhita</t>
+  </si>
+  <si>
+    <t>astjasse | nõusse</t>
+  </si>
+  <si>
+    <r>
+      <t>ty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>öase | työkalu</t>
+    </r>
+  </si>
+  <si>
+    <t>havahtua | herätä</t>
+  </si>
+  <si>
+    <r>
+      <t>tehd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ä tilavaksi | suurentaa</t>
+    </r>
+  </si>
+  <si>
+    <t>tilava | avara</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ähed "(kirjaimet)"</t>
+    </r>
+  </si>
+  <si>
+    <t>ammoinen | ammoin</t>
+  </si>
+  <si>
+    <t>tottua | käydä tavaksi</t>
+  </si>
+  <si>
+    <t>asettua | tyyntyä</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ahilo [Ro] </t>
     </r>
     <r>
       <rPr>
@@ -4530,586 +4628,16 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">äällä tulvaveden aikana) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>| ahil</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">sis käütī av̆vāmas kaik sillan aluksia auG. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(Hevosen) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>kaBjan aluksed tul̆lōt taZaiZekse, lauDajalaD, ei sā ravvoittā.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (Vilustumiseen) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">jalan alukseD voi₍ettī si₍arrazval sis kiukān seläl polDelDī - -. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> laGan aluZ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">— riihen räystäskatoksen alus. Usein oli kaksi isoa lakanalusta. Niissä pidettiin pellolta tuotu kuiva vilja. Kuominan ympärillä ei ollut lakanalusta. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ar̆rīnan aluZ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">— uunimainen syveenys kiukaan; uunin jalkaosassa. | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">enne oltī kiukān alukseD. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ikkunan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>͜</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> aluZ om märänD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — ikkunan alus on mädäntynyt. | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">laGan₍alukseD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">— puukatokset. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>mäen₍aluZ</t>
-    </r>
-  </si>
-  <si>
-    <t>laiva*1</t>
-  </si>
-  <si>
-    <t>*1: ennen purjelaiva, n. 10 tonnin tai suurempi, joita olivat</t>
-  </si>
-  <si>
-    <r>
-      <t>alushame</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">*1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Entisi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ä kotikutoisia hameita ruvettiin viimeisinä aikoina pitämään alushameina</t>
-    </r>
-  </si>
-  <si>
-    <t>laivan, kaljaasin omistaja | laivan rakentaja</t>
-  </si>
-  <si>
-    <t>taikinaa | alusta</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">vatsamato </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>| heisimato</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>iske</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ä "(ukkosesta)"</t>
-    </r>
-  </si>
-  <si>
-    <t>antaa periksi | antautua</t>
-  </si>
-  <si>
-    <r>
-      <t>pehmet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ä </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>| esim. raudasta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> | savimaasta | raakanahasta jne. puhuen</t>
-    </r>
-  </si>
-  <si>
-    <t>tehdä araksi | pelätellä</t>
-  </si>
-  <si>
-    <r>
-      <t>pehmeä, helposti katkeava, pieni- ja valkokukkainen kasvi, jota mm. sy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ötettiin sialle "(? Stellaria media)"</t>
-    </r>
-  </si>
-  <si>
-    <t>liian*1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*1: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>armaDoĭn s</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ūr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — liian suuri</t>
-    </r>
-  </si>
-  <si>
-    <t>hyvä | ystävällinen</t>
-  </si>
-  <si>
-    <t>rakasti | lempi</t>
-  </si>
-  <si>
-    <r>
-      <t>jonkinlainen p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>äälystakki | kauhtana</t>
-    </r>
-  </si>
-  <si>
-    <t>arka | pelokas</t>
-  </si>
-  <si>
-    <t>armas*1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*1: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ah</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>̭ ͜ h̭armulij jum̆māla kuiη kovast tūlō!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — ah armas jumala!</t>
-    </r>
-  </si>
-  <si>
-    <t>aroittaa | pelättää</t>
-  </si>
-  <si>
-    <r>
-      <t>kalastusvenekunta, tav. n. 6-7 miest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ä | nuottayhtiö</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ymm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ärtävä | älykäs | ymmärtäväinen</t>
-    </r>
-  </si>
-  <si>
-    <t>asti | saakka</t>
-  </si>
-  <si>
-    <t>asia | homma | työ | työkalu</t>
-  </si>
-  <si>
-    <t>karhi | äes</t>
-  </si>
-  <si>
-    <t>äestää | karhita</t>
-  </si>
-  <si>
-    <t>astjasse | nõusse</t>
-  </si>
-  <si>
-    <r>
-      <t>ty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>öase | työkalu</t>
-    </r>
-  </si>
-  <si>
-    <t>havahtua | herätä</t>
-  </si>
-  <si>
-    <r>
-      <t>tehd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ä tilavaksi | suurentaa</t>
-    </r>
-  </si>
-  <si>
-    <t>tilava | avara</t>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ähed "(kirjaimet)"</t>
-    </r>
-  </si>
-  <si>
-    <t>ammoinen | ammoin</t>
-  </si>
-  <si>
-    <t>tottua | käydä tavaksi</t>
-  </si>
-  <si>
-    <t>asettua | tyyntyä</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ahilo [Ro] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>| ahil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t>ōsse</t>
     </r>
   </si>
@@ -5150,103 +4678,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">*1: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">aiZaD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[Väärinoja] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>—ovat kävyn kielen kahden puolen olevat ohuet puuosat</t>
-    </r>
-  </si>
-  <si>
     <t>aiZanahkain | aiZannahkain | aisannahka [Uusikylä]</t>
   </si>
   <si>
     <t>aivoikkaa [Nar]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*1: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ükrän ajama </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[Uusikylä] — myyrän</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mätäs</t>
-    </r>
   </si>
   <si>
     <t>ajos [Ro]</t>
@@ -6058,63 +5493,6 @@
   </si>
   <si>
     <r>
-      <t>*1: vainajan muistop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">äivänä: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">tās pit'i suku kaikki aj̆jā kok̆kō </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[L-suu];</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ajetā suimā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — kutsutaan kylänkokoukseen</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">al | alla | nal | </t>
     </r>
     <r>
@@ -6518,27 +5896,182 @@
     <t>alketa</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
+    <t>alileuka</t>
+  </si>
+  <si>
+    <t>aliripsud</t>
+  </si>
+  <si>
+    <r>
+      <t>alla</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> | allaa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>allaisin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">alle | </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>ilma a</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>allesse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>allokaz</t>
+  </si>
+  <si>
+    <t>alutella</t>
+  </si>
+  <si>
+    <t>alutoz</t>
+  </si>
+  <si>
+    <t>alulaita</t>
+  </si>
+  <si>
+    <r>
+      <t>aluo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>sa</t>
+    </r>
+  </si>
+  <si>
+    <t>aluz</t>
+  </si>
+  <si>
+    <t>alushersi</t>
+  </si>
+  <si>
+    <t>alusmaja</t>
+  </si>
+  <si>
+    <t>alusmeez</t>
+  </si>
+  <si>
+    <t>ammultaa</t>
+  </si>
+  <si>
+    <t>ammuz</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">anti | </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">łkkenō </t>
+      <t>antii</t>
+    </r>
+  </si>
+  <si>
+    <t>[run.] @ mit Schuhriemen versehen</t>
+  </si>
+  <si>
+    <t>anttikristuz</t>
+  </si>
+  <si>
+    <t>apposteli | appoostoli</t>
+  </si>
+  <si>
+    <t>arassoz</t>
+  </si>
+  <si>
+    <t>arassutella</t>
+  </si>
+  <si>
+    <t>arpuusi</t>
+  </si>
+  <si>
+    <t>areta</t>
+  </si>
+  <si>
+    <t>arkaloontoin</t>
+  </si>
+  <si>
+    <t>arki</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">arkirooka </t>
     </r>
     <r>
       <rPr>
@@ -6548,20 +6081,22 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>— asettuu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>alemmaZ</t>
+      <t>| arkiruuka | arkiruua</t>
+    </r>
+  </si>
+  <si>
+    <t>armaz</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[?]</t>
     </r>
     <r>
       <rPr>
@@ -6572,323 +6107,57 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">— alemmas; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">alemppaa </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[Hev] — alempaa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(Madon luvusta) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>a si</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ä lippaist inmīZen lihutta, al̆lēne elä ül̆lēne, par̆rēne elä pah̭̆h̭ēne!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>alanikko m</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ā </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">— alava maa; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>koDi₍alanikko</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> —erään metsän nimi; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">alanikko notko </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t xml:space="preserve"> [run.] @ noita</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Väärinoja] [run.] @ henkil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ö, joka katsoi kortista, mikä vika oli | unien selittäjä</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ar̆rīna | arina </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>t.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> mā </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[Kurkola] — alava</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sananparsi: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>kat</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>̆tērīna kuZi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>₍</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ala</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — Katriinan päivänä sataa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ak si</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ä paharutkain, tēt pillā! ak siä paharätti ku siä et kūntele!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — tottele</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sormiajoksesta: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ū</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>r kip</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">̆pī₍ä </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> mok</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>̆kōma ajokip̆pī₍ä tuli</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>meren ajo</t>
+      <t xml:space="preserve">Väärinoja] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -6899,2161 +6168,50 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> veden rannalle ajama tavara</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ajatti vatsan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>— turvotti</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>min</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>̆nū₍a aivassutti</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(Ahavoituneet huulet voideltiin sianrasvalla:) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ai͜ koi pehmitt</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ǟ hüväst. miul on ai͜ koi hüväD oloD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(!)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">. ne oltī ai͜ koi maDalas si̮l rannaZ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(nim. rysät)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>. siZ Gu siGa kazvoĭ sūreksE, ai͜ koi sūreks ja lihavaksE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (sitten tapettiin)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>. se on aikoi poik̀ā!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ē kaskā </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(= tarina) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ei olD        miun͜ aik</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>̀</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(= minun aikainen)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> enämpǟ näiDä</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>se oli aiGa, aiGa puk</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>̆kāri poiGa oli s</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>è</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, poiGa mī̬Z oli ja - -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">aluksen ahteri </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>— laivan perä</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>se ku ahmasti s</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ȫ̭vvä</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — söi kovasti</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ah</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>̭nastā sǖ̮vvä, se on nīn ah̭mari</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ahl'es̆sa kütkesse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [Ro]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pienessä huonessä on </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ahissoZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ahhah kun on makia kakku!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" (Alava)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">rīhī on ahtiZ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>— ahdettuna</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ahavoitti tulel kä₍eD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[L-suu]; (Keväinen ahavatuuli) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>se ahavoittā kaikki, lohkō ne käet</t>
-    </r>
-  </si>
-  <si>
-    <t>ahah kerram pūDuiD miuŋ kättē!</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>tämä on veZerissam palura</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (= loppiaismyrsky)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, agrama∙tnoi tūli, sis kaiG vuh̭kā jokko paikka</t>
-    </r>
-  </si>
-  <si>
-    <t>alileuka</t>
-  </si>
-  <si>
-    <t>aliripsud</t>
-  </si>
-  <si>
-    <r>
-      <t>alla</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> | allaa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>miun ikkun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">͜ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>allāη</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (= pihallani)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> kazvā pihlaja, hǟ nokkī tikka</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> siinä</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>₍</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>an alaset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> [Uusikylä] — entisajan paidan alaosa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
+      <t>Kurkola]</t>
+    </r>
+  </si>
+  <si>
+    <t>arvoitella</t>
+  </si>
+  <si>
+    <t>arvoitoz</t>
+  </si>
+  <si>
+    <t>assiia | assia | asiaa</t>
+  </si>
+  <si>
+    <r>
+      <t>astava | astuva [Hev] [Kurkola] [Ro]</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>aллais</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t xml:space="preserve"> | as͔tua [Hev] | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ast'iva</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>̆t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> [Ylä-L] — labakindad [vir]; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>alasii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> [Kurkola] — käpikkindaid [vir]</t>
-    </r>
-  </si>
-  <si>
-    <t>allaisin</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">alle | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>allesse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>e</t>
-    </r>
-  </si>
-  <si>
-    <t>allokaz</t>
-  </si>
-  <si>
-    <t>alutella</t>
-  </si>
-  <si>
-    <t>alutoz</t>
-  </si>
-  <si>
-    <r>
-      <t>verGon aluDoZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">— verkon alku kudottaessa; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>kertā kolmē kümmenē teiD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — silmiä verkkoa alustaessa</t>
-    </r>
-  </si>
-  <si>
-    <t>alulaita</t>
-  </si>
-  <si>
-    <r>
-      <t>aluo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>sa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>koilD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (= talosta) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>vast on alup</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ō̭l vō̭riDettu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — vuorattu</t>
-    </r>
-  </si>
-  <si>
-    <t>aluz</t>
-  </si>
-  <si>
-    <t>alushersi</t>
-  </si>
-  <si>
-    <t>alusmaja</t>
-  </si>
-  <si>
-    <t>alusmeez</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ǟ on seGalain ammattel̆līja</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — ammattityömiestä hieman korkeammassa asemassa oleva henkilö, myyjä, pikkuvirkamies jne</t>
-    </r>
-  </si>
-  <si>
-    <t>ammultaa</t>
-  </si>
-  <si>
-    <t>ammuz</t>
-  </si>
-  <si>
-    <r>
-      <t>pit</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>́t́ä h́eińä panda ambar</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>i̯</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> [Ylä-L] — tuleb panna hein küüni [vir]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ammui</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>̆</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>h h</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>änelt tuBakkā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — pyysin, kysyin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">anti | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>antii</t>
-    </r>
-  </si>
-  <si>
-    <t>[run.] @ mit Schuhriemen versehen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>vett</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ä tāz ant̀ā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — t.s. sataa; (On puhe Välimataloista, joilla kalastetaan:) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ne mat̆tālaD ant̀āt kovast hailia. kaksil lehmim pi₍ettī, hȫ̭ ant̀oiD mait̆toa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>hǖ̬ ant̆toiD mait̆to₍ak̆kī paljo lehmäD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>anDoĭ kättä</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — tervehti kädestä. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>tās kaiGille kättä antā jällē</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>hǟ miulle kättä anDoĭ I miä hänelle mäniη kättä anDamā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (paennut vävy unessa) || </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>teDri hüppäĭs ta mäni, hǟks se miule kīn antā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> || </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>miul enempǟ ǟn͜ eı anna</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — en voi laulaa. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>a si</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>̄</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>z mǖ̬ olemma jälessä ja nō̭ttia enempǟ noiZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (= rupea) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>anDam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ā</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(Pääsiäiseen mentäessä pyydettiin anteeksi naapureilta:) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>voD n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ü</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>D mǖ̬ mǟmmä sūrē püh̭̆h̭ä, anDaGā nüD ant̀īks. ku oDan notkiav vits͔an kät̆tē, miä annav vit̀s͔ā. vit̀s͔āl annettī ain peiDettävöiDä</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — lyötiin vitsalla. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>hǟ kaiG lapselle antā periks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">miä annoĭn tīDä </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(= ilmoitin) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>hänelle jot tul̆līs tänne. antā nīj̆jen haililoiη kḙ̄hua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>väl'iž vitša andoi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> [Ylä-L] — vahel andis vitsa [vir]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>äkki-ammuZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — äkkiä tuleva taudinkohtaus | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ammukset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> [Ro] — rabandus [vir] | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>olla(k) ammuksis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — eine Thierkrankheit haben [saks]</t>
-    </r>
-  </si>
-  <si>
-    <t>anttikristuz</t>
-  </si>
-  <si>
-    <t>apposteli | appoostoli</t>
-  </si>
-  <si>
-    <t>arassoz</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>kem p</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ḙ̄nēn͜ on arassokseZ, se ik̆kǟhǟ kaik hervijǟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> pelkää</t>
-    </r>
-  </si>
-  <si>
-    <t>arassutella</t>
-  </si>
-  <si>
-    <t>arpuusi</t>
-  </si>
-  <si>
-    <t>areta</t>
-  </si>
-  <si>
-    <t>arkaloontoin</t>
-  </si>
-  <si>
-    <t>arki</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>tek</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>̆kȫ tȫ̭Dä areD ja pühäD ja aiη köühǟn ͜on. arkēn teh̭h̭ǟ tȫ̭Dä, püh̆hǟh̭ h̭ō̭₍aDā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> levätään | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>enZemässärGi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">enZimässärGi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>eZmessarGi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — maanantai | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>toissärGi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">toissarGi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>toissarkēn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — tiistai</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">arkirooka </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>| arkiruuka | arkiruua</t>
-    </r>
-  </si>
-  <si>
-    <t>armaz</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[?]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [run.] @ noita</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[Väärinoja] [run.] @ henkil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ö, joka katsoi kortista, mikä vika oli | unien selittäjä</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ar̆rīna | arina </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Väärinoja] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kurkola]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>arvokk</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>āD inmīst</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — hyvästi käyttäytyvät, joista paikkakuntalaiset pitävät. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>on inmīηk̆ki arvoGaZ ni ͜ Gu sellain oZajā hüväst it̀sijǟ käüttǟ ja el̆lǟ hüväst</t>
-    </r>
-  </si>
-  <si>
-    <t>arvoitella</t>
-  </si>
-  <si>
-    <t>arvoitoz</t>
-  </si>
-  <si>
-    <r>
-      <t>pahan arvoin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">— huono. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>vāttīD om pahan arvoist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>hein</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ämā kaiG ja₍ettī arvoit̆tē</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> arpomalla, arvalla</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[run.]: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(miun ehto</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ĭ</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Za em̆moin) kaiG lāDi lakkapūlle, miun aijoĭlle aZetti, ajoĭ tūlDa </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>unDomā, ahavoja arvoĭmā</t>
-    </r>
-  </si>
-  <si>
-    <t>assiia | assia | asiaa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ǟ as̆sū käǖv̆vä meil joGa päivä</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — on tapana käydä</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>astava | astuva [Hev] [Kurkola] [Ro]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> | as͔tua [Hev] | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ast'iva</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t xml:space="preserve"> [L-suu]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>astavav veDi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">— tyhjän (kosimis)matkan teki. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>se poiGa kolD astavā veDi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — sai kolmet rukkaset kosiessaan | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>vet̆tǟ astavā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — saa rukkaset</t>
     </r>
   </si>
   <si>
@@ -9214,198 +6372,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
+    <t>asettua</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">asu </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>štu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — astuda, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>aššu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — astu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ärkä temmelsi karjassa: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>paimenem piDi männä ain aZettam̆mā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> [Ro]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ūli aZettū</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> — tyyntyy | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>särGi hammast: lūn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (= luvun) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">tīZi joD luGi pǟlle joD aZettuĭ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">hammassärky | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>laps aZettuĭ makkama</t>
-    </r>
-  </si>
-  <si>
-    <t>asettua</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">asu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t>| assu</t>
     </r>
   </si>
@@ -9449,195 +6429,19 @@
     </r>
   </si>
   <si>
-    <t>avonaim meri</t>
-  </si>
-  <si>
     <t>aatuttaa</t>
   </si>
   <si>
     <t>aakentti</t>
   </si>
   <si>
-    <r>
-      <t>olkaa aamen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>— olkoon lopussa</t>
-    </r>
-  </si>
-  <si>
     <t>āmu | aamu [Nar] [Ro]</t>
   </si>
   <si>
-    <r>
-      <t>"sivulta halkinainen musta hame, ylh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">äältä alas asti avonainen </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>aannua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">. Halkinainen puoli on asetettu vasemmalle sivulle, «kurapuolelle», ja aannuata kannattaa halkeaman yläreunaan kiinnitetty, vasemman olan yli käyvä </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>olkamus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">. Aannua on n. metrin pituinen ja - - se ulottuu ylhäällä hartioihin kainaloiden alle, alhaalla se tapaa nilkkoihin. Vyötäisiltä sitä kiinnittää ruumiin ympäri sidottu eteen solmittu vyö, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>vyy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">. Värttinällä itse kehrätyistä villalangoista on aannua neljällä niidellä kudottu ja itse ommeltu. Leveyttä on siinä kaksi </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>palttinaa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (kankaan koko leveyttä) ja reunoissa viistot </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>laijat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, niin että helmän pituus on 140-150 cm sekä yläreunan 75-80 cm" (Pau SM 19 s. 39)</t>
-    </r>
-  </si>
-  <si>
     <t>[Ro] @ valekristus</t>
   </si>
   <si>
     <t>anttikristus</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Itkuvirrestä: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>mi</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ä veD lāhin sin̆nù₍a soDoitḙ̄lle soriDelDusēn, lā₍in armion aviks akkimaisēn</t>
-    </r>
   </si>
   <si>
     <t>[in Poesie] @ Liebchen</t>
@@ -10702,14 +7506,41 @@
     </r>
   </si>
   <si>
-    <t>neula, jolla "alaset" neulottiin</t>
+    <t>apo</t>
+  </si>
+  <si>
+    <t>verkkokävyn</t>
+  </si>
+  <si>
+    <t>mätäs</t>
+  </si>
+  <si>
+    <t>koota</t>
+  </si>
+  <si>
+    <t>aaltoisa</t>
+  </si>
+  <si>
+    <t>alus</t>
+  </si>
+  <si>
+    <t>laiva</t>
+  </si>
+  <si>
+    <t>liian</t>
+  </si>
+  <si>
+    <t>armas</t>
+  </si>
+  <si>
+    <t>neula, jolla 'alaset' neulottiin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10770,14 +7601,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
@@ -10785,14 +7608,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -10924,9 +7739,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10939,7 +7751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10961,6 +7773,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11266,8 +8081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11276,30 +8091,30 @@
     <col min="2" max="3" width="24.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="3" customWidth="1"/>
     <col min="5" max="6" width="16.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="19" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>918</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>919</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>618</v>
       </c>
     </row>
@@ -11338,10 +8153,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>920</v>
+        <v>851</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -11359,7 +8174,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -11374,7 +8189,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -11383,7 +8198,7 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -11414,7 +8229,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -11429,14 +8244,14 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>620</v>
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -11444,16 +8259,14 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>621</v>
+        <v>941</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -11463,7 +8276,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -11478,7 +8291,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
@@ -11495,7 +8308,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>22</v>
@@ -11525,7 +8338,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
@@ -11570,7 +8383,7 @@
         <v>105</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>921</v>
+        <v>852</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>28</v>
@@ -11606,7 +8419,7 @@
         <v>106</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>32</v>
@@ -11636,7 +8449,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>33</v>
@@ -11653,7 +8466,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>36</v>
@@ -11698,7 +8511,7 @@
         <v>191</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>922</v>
+        <v>853</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>42</v>
@@ -11765,7 +8578,7 @@
         <v>109</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>48</v>
@@ -11779,10 +8592,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>923</v>
+        <v>854</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>49</v>
@@ -11797,7 +8610,7 @@
         <v>110</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>50</v>
@@ -11825,7 +8638,7 @@
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
@@ -11838,9 +8651,7 @@
       <c r="D37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>828</v>
-      </c>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -11857,7 +8668,7 @@
       </c>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
@@ -11870,9 +8681,7 @@
       <c r="D39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="23" t="s">
-        <v>827</v>
-      </c>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -11882,7 +8691,7 @@
         <v>111</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>58</v>
@@ -11897,7 +8706,7 @@
         <v>112</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>59</v>
@@ -11919,7 +8728,7 @@
       </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
@@ -11932,9 +8741,7 @@
       <c r="D43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="22" t="s">
-        <v>826</v>
-      </c>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -11949,11 +8756,9 @@
       <c r="D44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -11966,12 +8771,10 @@
       <c r="D45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="22" t="s">
-        <v>824</v>
-      </c>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -11981,7 +8784,7 @@
         <v>118</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G46" s="10"/>
     </row>
@@ -11990,10 +8793,10 @@
         <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>924</v>
+        <v>855</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>66</v>
@@ -12015,7 +8818,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
@@ -12023,14 +8826,12 @@
         <v>113</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>823</v>
-      </c>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -12043,13 +8844,13 @@
         <v>69</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G51" s="10"/>
     </row>
@@ -12082,7 +8883,7 @@
         <v>74</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>136</v>
@@ -12097,7 +8898,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>925</v>
+        <v>856</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>75</v>
@@ -12109,19 +8910,17 @@
         <v>6</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>926</v>
+        <v>857</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G57" s="22" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>6</v>
       </c>
@@ -12129,16 +8928,14 @@
         <v>77</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>927</v>
+        <v>858</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="23" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
@@ -12151,9 +8948,7 @@
       <c r="D59" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G59" s="23" t="s">
-        <v>820</v>
-      </c>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -12208,7 +9003,7 @@
         <v>117</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>928</v>
+        <v>859</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>86</v>
@@ -12217,7 +9012,7 @@
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D64" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G64" s="10"/>
     </row>
@@ -12232,7 +9027,7 @@
         <v>87</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G65" s="10"/>
     </row>
@@ -12265,7 +9060,7 @@
         <v>114</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>91</v>
@@ -12301,7 +9096,7 @@
         <v>115</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>91</v>
@@ -12316,7 +9111,7 @@
         <v>116</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>59</v>
@@ -12336,9 +9131,7 @@
       <c r="D73" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G73" s="23" t="s">
-        <v>819</v>
-      </c>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -12348,7 +9141,7 @@
         <v>96</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>95</v>
@@ -12385,7 +9178,7 @@
       </c>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>16</v>
       </c>
@@ -12398,9 +9191,7 @@
       <c r="D77" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G77" s="23" t="s">
-        <v>818</v>
-      </c>
+      <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -12425,7 +9216,7 @@
         <v>102</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>103</v>
@@ -12440,7 +9231,7 @@
         <v>124</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>125</v>
@@ -12455,7 +9246,7 @@
         <v>126</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>127</v>
@@ -12495,7 +9286,7 @@
       </c>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>47</v>
       </c>
@@ -12503,14 +9294,12 @@
         <v>137</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G84" s="23" t="s">
-        <v>817</v>
-      </c>
+      <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
@@ -12532,17 +9321,17 @@
         <v>6</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>929</v>
+        <v>860</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>141</v>
       </c>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
@@ -12550,14 +9339,12 @@
         <v>142</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>915</v>
+        <v>846</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G87" s="22" t="s">
-        <v>816</v>
-      </c>
+      <c r="G87" s="21"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -12567,7 +9354,7 @@
         <v>143</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>46</v>
@@ -12612,7 +9399,7 @@
         <v>150</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>930</v>
+        <v>861</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>149</v>
@@ -12624,10 +9411,10 @@
         <v>16</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>931</v>
+        <v>862</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>151</v>
@@ -12639,10 +9426,10 @@
         <v>47</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>932</v>
+        <v>863</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>152</v>
@@ -12669,10 +9456,10 @@
         <v>6</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>933</v>
+        <v>864</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>154</v>
@@ -12682,23 +9469,21 @@
       </c>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D96" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>690</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="G96" s="12"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>934</v>
+        <v>865</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>156</v>
@@ -12710,10 +9495,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>935</v>
+        <v>866</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>157</v>
@@ -12725,13 +9510,13 @@
         <v>6</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>936</v>
+        <v>867</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G99" s="10"/>
     </row>
@@ -12790,7 +9575,7 @@
         <v>163</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>164</v>
@@ -12826,7 +9611,7 @@
         <v>168</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>164</v>
@@ -12846,9 +9631,7 @@
       <c r="D107" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G107" s="23" t="s">
-        <v>815</v>
-      </c>
+      <c r="G107" s="22"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
@@ -12888,7 +9671,7 @@
         <v>181</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>938</v>
+        <v>869</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>161</v>
@@ -12913,7 +9696,7 @@
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="24" t="s">
+      <c r="A112" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -12947,10 +9730,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>937</v>
+        <v>868</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>180</v>
@@ -12965,14 +9748,14 @@
         <v>182</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G115" s="10"/>
     </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>6</v>
       </c>
@@ -12983,11 +9766,9 @@
         <v>184</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>693</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
@@ -13002,9 +9783,7 @@
       <c r="D117" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G117" s="22" t="s">
-        <v>814</v>
-      </c>
+      <c r="G117" s="21"/>
     </row>
     <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
@@ -13014,7 +9793,7 @@
         <v>187</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>916</v>
+        <v>847</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>188</v>
@@ -13029,7 +9808,7 @@
         <v>193</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>939</v>
+        <v>870</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>192</v>
@@ -13050,19 +9829,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D122" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D123" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D124" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G124" s="10"/>
     </row>
@@ -13084,15 +9863,13 @@
       </c>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D128" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>6</v>
       </c>
@@ -13105,9 +9882,7 @@
       <c r="D129" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="22" t="s">
-        <v>813</v>
-      </c>
+      <c r="G129" s="21"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D130" s="3" t="s">
@@ -13115,7 +9890,7 @@
       </c>
       <c r="G130" s="10"/>
     </row>
-    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>6</v>
       </c>
@@ -13128,9 +9903,7 @@
       <c r="D131" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G131" s="22" t="s">
-        <v>812</v>
-      </c>
+      <c r="G131" s="21"/>
     </row>
     <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
@@ -13152,10 +9925,10 @@
         <v>6</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>940</v>
+        <v>871</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>205</v>
@@ -13164,20 +9937,20 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>941</v>
+        <v>872</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="G134" s="10"/>
     </row>
-    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>3</v>
       </c>
@@ -13190,9 +9963,7 @@
       <c r="D135" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G135" s="23" t="s">
-        <v>811</v>
-      </c>
+      <c r="G135" s="22"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
@@ -13226,7 +9997,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D138" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G138" s="10"/>
     </row>
@@ -13253,16 +10024,16 @@
         <v>213</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>942</v>
+        <v>873</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G140" s="10"/>
     </row>
@@ -13274,7 +10045,7 @@
         <v>212</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>214</v>
@@ -13340,7 +10111,7 @@
         <v>221</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>222</v>
@@ -13361,7 +10132,7 @@
         <v>224</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>225</v>
@@ -13376,7 +10147,7 @@
         <v>230</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>227</v>
@@ -13398,7 +10169,7 @@
       </c>
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>6</v>
       </c>
@@ -13411,19 +10182,17 @@
       <c r="D151" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G151" s="22" t="s">
-        <v>810</v>
-      </c>
+      <c r="G151" s="21"/>
     </row>
     <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>943</v>
+        <v>874</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>46</v>
@@ -13453,10 +10222,10 @@
         <v>16</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>944</v>
+        <v>875</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>46</v>
@@ -13486,10 +10255,10 @@
         <v>16</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>947</v>
+        <v>878</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>948</v>
+        <v>879</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>239</v>
@@ -13515,14 +10284,14 @@
       <c r="G157" s="10"/>
     </row>
     <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="24" t="s">
+      <c r="A158" s="23" t="s">
         <v>242</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>945</v>
+        <v>876</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>46</v>
@@ -13537,10 +10306,10 @@
         <v>6</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>946</v>
+        <v>877</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>243</v>
@@ -13592,7 +10361,7 @@
       </c>
       <c r="G162" s="10"/>
     </row>
-    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>213</v>
       </c>
@@ -13608,9 +10377,7 @@
       <c r="F163" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G163" s="25" t="s">
-        <v>809</v>
-      </c>
+      <c r="G163" s="24"/>
     </row>
     <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
@@ -13635,10 +10402,10 @@
         <v>6</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>949</v>
+        <v>880</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>46</v>
@@ -13653,10 +10420,10 @@
         <v>6</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>950</v>
+        <v>881</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>255</v>
@@ -13664,14 +10431,14 @@
       <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="24" t="s">
+      <c r="A167" s="23" t="s">
         <v>258</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>257</v>
@@ -13683,10 +10450,10 @@
         <v>6</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>951</v>
+        <v>882</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>259</v>
@@ -13713,10 +10480,10 @@
         <v>16</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>952</v>
+        <v>883</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>262</v>
@@ -13746,7 +10513,7 @@
         <v>266</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>267</v>
@@ -13763,8 +10530,8 @@
       <c r="C173" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D173" s="24" t="s">
-        <v>1010</v>
+      <c r="D173" s="23" t="s">
+        <v>950</v>
       </c>
       <c r="G173" s="10"/>
     </row>
@@ -13776,10 +10543,10 @@
         <v>270</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G174" s="10"/>
     </row>
@@ -13791,7 +10558,7 @@
         <v>271</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>272</v>
@@ -13803,10 +10570,10 @@
         <v>16</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>953</v>
+        <v>884</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>46</v>
@@ -13832,14 +10599,14 @@
       <c r="G177" s="10"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="24" t="s">
+      <c r="A178" s="23" t="s">
         <v>242</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>277</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>278</v>
@@ -13854,7 +10621,7 @@
         <v>279</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>280</v>
@@ -13867,7 +10634,7 @@
       </c>
       <c r="G180" s="10"/>
     </row>
-    <row r="181" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>9</v>
       </c>
@@ -13875,18 +10642,16 @@
         <v>282</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G181" s="22" t="s">
-        <v>808</v>
-      </c>
+      <c r="G181" s="21"/>
     </row>
     <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D182" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G182" s="10"/>
     </row>
@@ -13898,14 +10663,14 @@
         <v>283</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>284</v>
       </c>
       <c r="G183" s="10"/>
     </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>47</v>
       </c>
@@ -13913,14 +10678,12 @@
         <v>285</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G184" s="22" t="s">
-        <v>807</v>
-      </c>
+      <c r="G184" s="21"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
@@ -13930,7 +10693,7 @@
         <v>286</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>287</v>
@@ -13945,7 +10708,7 @@
         <v>288</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>289</v>
@@ -13956,9 +10719,7 @@
       <c r="D187" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G187" s="26" t="s">
-        <v>806</v>
-      </c>
+      <c r="G187" s="25"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
@@ -13983,7 +10744,7 @@
         <v>292</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>829</v>
+        <v>786</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>293</v>
@@ -13992,13 +10753,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>296</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>830</v>
+        <v>787</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>297</v>
@@ -14027,10 +10788,10 @@
         <v>9</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>954</v>
+        <v>885</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>298</v>
@@ -14056,19 +10817,17 @@
       <c r="D194" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G194" s="26" t="s">
-        <v>806</v>
-      </c>
+      <c r="G194" s="25"/>
     </row>
     <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>955</v>
+        <v>886</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>298</v>
@@ -14108,7 +10867,7 @@
       </c>
       <c r="G197" s="10"/>
     </row>
-    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>226</v>
       </c>
@@ -14116,14 +10875,12 @@
         <v>342</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>831</v>
+        <v>788</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G198" s="23" t="s">
-        <v>832</v>
-      </c>
+      <c r="G198" s="22"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D199" s="3" t="s">
@@ -14157,10 +10914,10 @@
         <v>6</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>956</v>
+        <v>887</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>249</v>
@@ -14173,34 +10930,30 @@
       </c>
       <c r="G203" s="10"/>
     </row>
-    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D204" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G204" s="23" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G204" s="22"/>
+    </row>
+    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D205" s="5" t="s">
         <v>309</v>
       </c>
       <c r="E205" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G205" s="27" t="s">
-        <v>834</v>
-      </c>
+      <c r="G205" s="26"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>957</v>
+        <v>888</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>308</v>
@@ -14215,7 +10968,7 @@
         <v>310</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>835</v>
+        <v>789</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>249</v>
@@ -14244,10 +10997,10 @@
         <v>6</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>958</v>
+        <v>889</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>312</v>
@@ -14259,10 +11012,10 @@
         <v>16</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>959</v>
+        <v>890</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>257</v>
@@ -14270,14 +11023,14 @@
       <c r="G210" s="10"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="24" t="s">
+      <c r="A211" s="23" t="s">
         <v>314</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>313</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>836</v>
+        <v>790</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>304</v>
@@ -14289,7 +11042,7 @@
         <v>3</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>304</v>
@@ -14304,10 +11057,10 @@
         <v>6</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>960</v>
+        <v>891</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>316</v>
@@ -14325,11 +11078,11 @@
         <v>317</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G214" s="10"/>
     </row>
-    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>47</v>
       </c>
@@ -14337,14 +11090,12 @@
         <v>319</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>837</v>
+        <v>791</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G215" s="15" t="s">
-        <v>643</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="G215" s="15"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
@@ -14399,7 +11150,7 @@
         <v>325</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>838</v>
+        <v>792</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>46</v>
@@ -14409,7 +11160,7 @@
       </c>
       <c r="G219" s="10"/>
     </row>
-    <row r="220" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>6</v>
       </c>
@@ -14417,18 +11168,16 @@
         <v>326</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>839</v>
+        <v>793</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G220" s="23" t="s">
-        <v>840</v>
-      </c>
+      <c r="G220" s="22"/>
     </row>
     <row r="221" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D221" s="5" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G221" s="10"/>
     </row>
@@ -14470,7 +11219,7 @@
         <v>331</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>841</v>
+        <v>794</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>332</v>
@@ -14485,14 +11234,14 @@
         <v>333</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>842</v>
+        <v>795</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>334</v>
       </c>
       <c r="G225" s="10"/>
     </row>
-    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>6</v>
       </c>
@@ -14505,9 +11254,7 @@
       <c r="D226" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G226" s="26" t="s">
-        <v>843</v>
-      </c>
+      <c r="G226" s="25"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
@@ -14547,51 +11294,45 @@
         <v>344</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>844</v>
+        <v>796</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="G229" s="10"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D230" s="3" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G230" s="10"/>
     </row>
-    <row r="231" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D231" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="G231" s="16" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+      <c r="G231" s="28"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D232" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="G232" s="10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+      <c r="G232" s="10"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>328</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="G233" s="13" t="s">
-        <v>652</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
@@ -14601,7 +11342,7 @@
         <v>345</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>845</v>
+        <v>797</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>346</v>
@@ -14616,7 +11357,7 @@
         <v>347</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>846</v>
+        <v>798</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>46</v>
@@ -14634,10 +11375,10 @@
         <v>349</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>847</v>
+        <v>799</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="G236" s="10"/>
     </row>
@@ -14646,10 +11387,10 @@
         <v>6</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>961</v>
+        <v>892</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>350</v>
@@ -14661,10 +11402,10 @@
         <v>6</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>351</v>
@@ -14682,7 +11423,7 @@
         <v>352</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G239" s="10"/>
     </row>
@@ -14715,7 +11456,7 @@
         <v>355</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="G241" s="10"/>
     </row>
@@ -14727,14 +11468,14 @@
         <v>356</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>963</v>
+        <v>894</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>357</v>
       </c>
       <c r="G242" s="10"/>
     </row>
-    <row r="243" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>6</v>
       </c>
@@ -14747,9 +11488,7 @@
       <c r="D243" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G243" s="28" t="s">
-        <v>848</v>
-      </c>
+      <c r="G243" s="27"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
@@ -14786,10 +11525,10 @@
         <v>6</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>965</v>
+        <v>896</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>364</v>
@@ -14816,10 +11555,10 @@
         <v>9</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>964</v>
+        <v>895</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>368</v>
@@ -14834,14 +11573,14 @@
         <v>369</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>849</v>
+        <v>800</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>370</v>
       </c>
       <c r="G249" s="10"/>
     </row>
-    <row r="250" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>6</v>
       </c>
@@ -14849,7 +11588,7 @@
         <v>371</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>850</v>
+        <v>801</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>46</v>
@@ -14860,11 +11599,9 @@
       <c r="F250" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G250" s="28" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G250" s="27"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>6</v>
       </c>
@@ -14880,9 +11617,7 @@
       <c r="E251" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G251" s="23" t="s">
-        <v>851</v>
-      </c>
+      <c r="G251" s="22"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
@@ -14892,7 +11627,7 @@
         <v>375</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>966</v>
+        <v>897</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>373</v>
@@ -14901,27 +11636,25 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D253" s="3" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="G253" s="10"/>
     </row>
-    <row r="254" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D254" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G254" s="28" t="s">
-        <v>852</v>
-      </c>
+      <c r="G254" s="27"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>967</v>
+        <v>898</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>46</v>
@@ -14939,7 +11672,7 @@
         <v>376</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>853</v>
+        <v>802</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>377</v>
@@ -14966,10 +11699,10 @@
         <v>6</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>968</v>
+        <v>899</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>381</v>
@@ -14987,7 +11720,7 @@
         <v>383</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>384</v>
@@ -15062,10 +11795,10 @@
         <v>6</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>969</v>
+        <v>900</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>394</v>
@@ -15077,16 +11810,16 @@
         <v>9</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>854</v>
+        <v>803</v>
       </c>
       <c r="G265" s="10"/>
     </row>
@@ -15098,7 +11831,7 @@
         <v>398</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>970</v>
+        <v>901</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>395</v>
@@ -15117,24 +11850,20 @@
       </c>
       <c r="G268" s="10"/>
     </row>
-    <row r="269" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D269" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G269" s="28" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="375" x14ac:dyDescent="0.25">
+      <c r="G269" s="27"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D270" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E270" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G270" s="28" t="s">
-        <v>856</v>
-      </c>
+      <c r="G270" s="27"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
@@ -15144,7 +11873,7 @@
         <v>399</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>1003</v>
+        <v>934</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>400</v>
@@ -15162,13 +11891,13 @@
         <v>401</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="G272" s="10"/>
     </row>
     <row r="273" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D273" s="3" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G273" s="10"/>
     </row>
@@ -15180,16 +11909,16 @@
         <v>403</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>858</v>
+        <v>804</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>905</v>
+        <v>837</v>
       </c>
       <c r="G274" s="10"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D275" s="3" t="s">
-        <v>904</v>
+        <v>836</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -15212,10 +11941,10 @@
         <v>6</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>971</v>
+        <v>902</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>406</v>
@@ -15245,7 +11974,7 @@
         <v>411</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>972</v>
+        <v>903</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>410</v>
@@ -15260,7 +11989,7 @@
         <v>412</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>859</v>
+        <v>805</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>413</v>
@@ -15312,7 +12041,7 @@
       </c>
       <c r="G283" s="10"/>
     </row>
-    <row r="284" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>6</v>
       </c>
@@ -15320,14 +12049,12 @@
         <v>420</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>860</v>
+        <v>806</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G284" s="28" t="s">
-        <v>861</v>
-      </c>
+      <c r="G284" s="27"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
@@ -15337,10 +12064,10 @@
         <v>421</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>862</v>
+        <v>807</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="G285" s="10"/>
     </row>
@@ -15403,7 +12130,7 @@
         <v>428</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>863</v>
+        <v>808</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>429</v>
@@ -15418,7 +12145,7 @@
         <v>430</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>864</v>
+        <v>809</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>431</v>
@@ -15493,14 +12220,14 @@
         <v>441</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>865</v>
+        <v>810</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>442</v>
       </c>
       <c r="G296" s="10"/>
     </row>
-    <row r="297" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>6</v>
       </c>
@@ -15508,14 +12235,12 @@
         <v>443</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>866</v>
+        <v>811</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G297" s="28" t="s">
-        <v>867</v>
-      </c>
+      <c r="G297" s="27"/>
     </row>
     <row r="298" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D298" s="3" t="s">
@@ -15561,7 +12286,7 @@
         <v>452</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>868</v>
+        <v>812</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>453</v>
@@ -15624,13 +12349,13 @@
         <v>457</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>1009</v>
+        <v>940</v>
       </c>
       <c r="G305" s="10"/>
     </row>
     <row r="306" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="D306" s="3" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G306" s="10"/>
     </row>
@@ -15654,23 +12379,21 @@
         <v>47</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>973</v>
+        <v>904</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>460</v>
       </c>
       <c r="G308" s="10"/>
     </row>
-    <row r="309" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D309" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="G309" s="10" t="s">
-        <v>662</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="G309" s="10"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
@@ -15695,10 +12418,10 @@
         <v>463</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>869</v>
+        <v>813</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="G311" s="10"/>
     </row>
@@ -15707,13 +12430,13 @@
         <v>9</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>974</v>
+        <v>905</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="G312" s="10"/>
     </row>
@@ -15725,10 +12448,10 @@
         <v>464</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="G313" s="10"/>
     </row>
@@ -15761,11 +12484,11 @@
         <v>46</v>
       </c>
       <c r="F315" s="10" t="s">
-        <v>907</v>
+        <v>838</v>
       </c>
       <c r="G315" s="10"/>
     </row>
-    <row r="316" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>213</v>
       </c>
@@ -15778,9 +12501,7 @@
       <c r="D316" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G316" s="22" t="s">
-        <v>906</v>
-      </c>
+      <c r="G316" s="21"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
@@ -15802,20 +12523,20 @@
         <v>47</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>975</v>
+        <v>906</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="E318" s="10" t="s">
         <v>470</v>
       </c>
       <c r="G318" s="10"/>
     </row>
-    <row r="319" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>47</v>
       </c>
@@ -15823,14 +12544,12 @@
         <v>471</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G319" s="10" t="s">
-        <v>668</v>
-      </c>
+        <v>949</v>
+      </c>
+      <c r="G319" s="10"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
@@ -15843,7 +12562,7 @@
         <v>472</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="G320" s="10"/>
     </row>
@@ -15852,13 +12571,13 @@
         <v>6</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>976</v>
+        <v>907</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>870</v>
+        <v>814</v>
       </c>
       <c r="G321" s="10"/>
     </row>
@@ -15882,13 +12601,13 @@
         <v>6</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>871</v>
+        <v>815</v>
       </c>
       <c r="F323" s="10" t="s">
         <v>476</v>
@@ -15900,13 +12619,13 @@
         <v>6</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>977</v>
+        <v>908</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>911</v>
+        <v>842</v>
       </c>
       <c r="E324" s="10" t="s">
         <v>477</v>
@@ -15915,17 +12634,17 @@
     </row>
     <row r="325" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D325" s="3" t="s">
-        <v>908</v>
+        <v>839</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D326" s="3" t="s">
-        <v>909</v>
+        <v>840</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D327" s="21" t="s">
-        <v>910</v>
+      <c r="D327" s="20" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -15933,10 +12652,10 @@
         <v>6</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>872</v>
+        <v>816</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>978</v>
+        <v>909</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>478</v>
@@ -15963,19 +12682,19 @@
         <v>6</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>1004</v>
+        <v>935</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>912</v>
+        <v>843</v>
       </c>
       <c r="G330" s="10"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D331" s="3" t="s">
-        <v>913</v>
+        <v>844</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -15998,13 +12717,13 @@
         <v>6</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>979</v>
+        <v>910</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="G333" s="10"/>
     </row>
@@ -16016,7 +12735,7 @@
         <v>482</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>483</v>
@@ -16088,7 +12807,7 @@
         <v>493</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>980</v>
+        <v>911</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>494</v>
@@ -16109,13 +12828,13 @@
         <v>47</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>981</v>
+        <v>912</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="G343" s="10"/>
     </row>
@@ -16125,13 +12844,11 @@
       </c>
       <c r="G344" s="10"/>
     </row>
-    <row r="345" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D345" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G345" s="28" t="s">
-        <v>873</v>
-      </c>
+      <c r="G345" s="27"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
@@ -16141,7 +12858,7 @@
         <v>498</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>874</v>
+        <v>817</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>499</v>
@@ -16156,17 +12873,17 @@
         <v>500</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>875</v>
+        <v>818</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E347" s="17" t="s">
+      <c r="E347" s="16" t="s">
         <v>502</v>
       </c>
       <c r="G347" s="10"/>
     </row>
-    <row r="348" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>47</v>
       </c>
@@ -16179,9 +12896,7 @@
       <c r="D348" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G348" s="23" t="s">
-        <v>876</v>
-      </c>
+      <c r="G348" s="22"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
@@ -16198,7 +12913,7 @@
       </c>
       <c r="G349" s="10"/>
     </row>
-    <row r="350" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>16</v>
       </c>
@@ -16211,11 +12926,9 @@
       <c r="D350" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G350" s="27" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G350" s="26"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>9</v>
       </c>
@@ -16228,9 +12941,7 @@
       <c r="D351" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G351" s="22" t="s">
-        <v>878</v>
-      </c>
+      <c r="G351" s="21"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
@@ -16282,13 +12993,13 @@
         <v>226</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>982</v>
+        <v>913</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="G355" s="10"/>
     </row>
@@ -16300,14 +13011,14 @@
         <v>515</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>879</v>
+        <v>819</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="G356" s="10"/>
     </row>
-    <row r="357" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>9</v>
       </c>
@@ -16320,9 +13031,7 @@
       <c r="D357" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G357" s="28" t="s">
-        <v>880</v>
-      </c>
+      <c r="G357" s="27"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D358" s="3" t="s">
@@ -16350,15 +13059,15 @@
         <v>6</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>881</v>
+        <v>820</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>983</v>
+        <v>914</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="E360" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="E360" s="16" t="s">
         <v>521</v>
       </c>
       <c r="F360" s="10" t="s">
@@ -16366,13 +13075,11 @@
       </c>
       <c r="G360" s="10"/>
     </row>
-    <row r="361" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D361" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G361" s="23" t="s">
-        <v>882</v>
-      </c>
+      <c r="G361" s="22"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
@@ -16394,13 +13101,13 @@
         <v>9</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>883</v>
+        <v>821</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="D363" s="18" t="s">
-        <v>675</v>
+        <v>915</v>
+      </c>
+      <c r="D363" s="17" t="s">
+        <v>658</v>
       </c>
       <c r="F363" s="10" t="s">
         <v>524</v>
@@ -16412,10 +13119,10 @@
         <v>6</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>985</v>
+        <v>916</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>525</v>
@@ -16442,16 +13149,16 @@
         <v>16</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>986</v>
+        <v>917</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E366" s="10" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="G366" s="10"/>
     </row>
@@ -16460,17 +13167,15 @@
         <v>9</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>987</v>
+        <v>918</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G367" s="27" t="s">
-        <v>884</v>
-      </c>
+      <c r="G367" s="26"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
@@ -16492,10 +13197,10 @@
         <v>9</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>988</v>
+        <v>919</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>529</v>
@@ -16514,26 +13219,24 @@
       </c>
       <c r="G371" s="10"/>
     </row>
-    <row r="372" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D372" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E372" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="G372" s="22" t="s">
-        <v>885</v>
-      </c>
+      <c r="G372" s="21"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>989</v>
+        <v>920</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>46</v>
@@ -16543,7 +13246,7 @@
       </c>
       <c r="G373" s="10"/>
     </row>
-    <row r="374" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>9</v>
       </c>
@@ -16551,14 +13254,12 @@
         <v>534</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>887</v>
+        <v>822</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G374" s="28" t="s">
-        <v>886</v>
-      </c>
+      <c r="G374" s="27"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D375" s="3" t="s">
@@ -16589,10 +13290,10 @@
         <v>537</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>888</v>
+        <v>823</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="G377" s="10"/>
     </row>
@@ -16607,10 +13308,10 @@
         <v>6</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>990</v>
+        <v>921</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>46</v>
@@ -16628,7 +13329,7 @@
         <v>540</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>889</v>
+        <v>824</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>541</v>
@@ -16637,16 +13338,16 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>890</v>
+        <v>825</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="G381" s="10"/>
     </row>
@@ -16661,7 +13362,7 @@
         <v>542</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>914</v>
+        <v>845</v>
       </c>
       <c r="G382" s="10"/>
     </row>
@@ -16670,10 +13371,10 @@
         <v>16</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>891</v>
+        <v>826</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1005</v>
+        <v>936</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>544</v>
@@ -16688,7 +13389,7 @@
         <v>545</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>892</v>
+        <v>827</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>546</v>
@@ -16700,10 +13401,10 @@
         <v>6</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1006</v>
+        <v>937</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>893</v>
+        <v>828</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>547</v>
@@ -16730,10 +13431,10 @@
         <v>6</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>894</v>
+        <v>829</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>991</v>
+        <v>922</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>550</v>
@@ -16745,7 +13446,7 @@
         <v>6</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>551</v>
@@ -16760,13 +13461,13 @@
         <v>9</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>895</v>
+        <v>830</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>896</v>
+        <v>831</v>
       </c>
       <c r="G389" s="10"/>
     </row>
@@ -16805,13 +13506,13 @@
         <v>9</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>992</v>
+        <v>923</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G392" s="10"/>
     </row>
@@ -16856,7 +13557,7 @@
         <v>565</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="G395" s="10"/>
     </row>
@@ -16912,14 +13613,14 @@
       <c r="G398" s="10"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="24" t="s">
+      <c r="A399" s="23" t="s">
         <v>571</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>572</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>897</v>
+        <v>832</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>573</v>
@@ -16949,7 +13650,7 @@
         <v>575</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>917</v>
+        <v>848</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>576</v>
@@ -16969,9 +13670,7 @@
       <c r="D402" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G402" s="23" t="s">
-        <v>898</v>
-      </c>
+      <c r="G402" s="22"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
@@ -16981,7 +13680,7 @@
         <v>578</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>993</v>
+        <v>924</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>579</v>
@@ -17014,7 +13713,7 @@
         <v>586</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="G405" s="10"/>
     </row>
@@ -17022,7 +13721,7 @@
       <c r="A406" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B406" s="18" t="s">
+      <c r="B406" s="17" t="s">
         <v>587</v>
       </c>
       <c r="C406" s="3" t="s">
@@ -17037,11 +13736,11 @@
       <c r="A407" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B407" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="C407" s="18" t="s">
-        <v>994</v>
+      <c r="B407" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="C407" s="17" t="s">
+        <v>925</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>590</v>
@@ -17055,11 +13754,11 @@
       <c r="A408" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B408" s="18" t="s">
+      <c r="B408" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="C408" s="18" t="s">
-        <v>995</v>
+      <c r="C408" s="17" t="s">
+        <v>926</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>593</v>
@@ -17070,11 +13769,11 @@
       <c r="A409" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B409" s="18" t="s">
+      <c r="B409" s="17" t="s">
         <v>594</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>899</v>
+        <v>833</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>595</v>
@@ -17085,11 +13784,11 @@
       <c r="A410" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B410" s="18" t="s">
+      <c r="B410" s="17" t="s">
         <v>596</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>900</v>
+        <v>834</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>597</v>
@@ -17100,7 +13799,7 @@
       <c r="A411" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B411" s="18" t="s">
+      <c r="B411" s="17" t="s">
         <v>598</v>
       </c>
       <c r="C411" s="3" t="s">
@@ -17115,7 +13814,7 @@
       <c r="A412" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B412" s="18" t="s">
+      <c r="B412" s="17" t="s">
         <v>601</v>
       </c>
       <c r="C412" s="3" t="s">
@@ -17126,35 +13825,33 @@
       </c>
       <c r="G412" s="10"/>
     </row>
-    <row r="413" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B413" s="18" t="s">
+      <c r="B413" s="17" t="s">
         <v>604</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>996</v>
+        <v>927</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G413" s="23" t="s">
-        <v>901</v>
-      </c>
+      <c r="G413" s="22"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B414" s="18" t="s">
-        <v>731</v>
-      </c>
-      <c r="C414" s="18" t="s">
-        <v>997</v>
+      <c r="B414" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="C414" s="17" t="s">
+        <v>928</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="G414" s="10"/>
     </row>
@@ -17162,11 +13859,11 @@
       <c r="A415" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B415" s="18" t="s">
-        <v>902</v>
+      <c r="B415" s="17" t="s">
+        <v>835</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>1007</v>
+        <v>938</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>605</v>
@@ -17174,17 +13871,17 @@
       <c r="G415" s="10"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="24" t="s">
+      <c r="A416" s="23" t="s">
         <v>606</v>
       </c>
-      <c r="B416" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="C416" s="18" t="s">
+      <c r="B416" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="C416" s="17" t="s">
         <v>607</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="G416" s="10"/>
     </row>
@@ -17193,10 +13890,10 @@
         <v>6</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>998</v>
+        <v>929</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>605</v>
@@ -17207,39 +13904,37 @@
       <c r="A418" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B418" s="18" t="s">
-        <v>1000</v>
+      <c r="B418" s="17" t="s">
+        <v>931</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>999</v>
+        <v>930</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G418" s="10"/>
     </row>
-    <row r="419" spans="1:7" ht="405" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B419" s="18" t="s">
-        <v>734</v>
+      <c r="B419" s="17" t="s">
+        <v>715</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>1008</v>
+        <v>939</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G419" s="22" t="s">
-        <v>903</v>
-      </c>
+      <c r="G419" s="21"/>
     </row>
     <row r="420" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B420" s="18" t="s">
+      <c r="B420" s="17" t="s">
         <v>609</v>
       </c>
       <c r="C420" s="3" t="s">
@@ -17254,11 +13949,11 @@
       <c r="A421" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B421" s="18" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C421" s="18" t="s">
-        <v>1001</v>
+      <c r="B421" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="C421" s="17" t="s">
+        <v>932</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>612</v>
@@ -17269,7 +13964,7 @@
       <c r="A422" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B422" s="18" t="s">
+      <c r="B422" s="17" t="s">
         <v>613</v>
       </c>
       <c r="C422" s="3" t="s">
@@ -17287,25 +13982,25 @@
       <c r="A423" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B423" s="18" t="s">
+      <c r="B423" s="17" t="s">
         <v>616</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>617</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="G423" s="10"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D424" s="3" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="G424" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/testdata/nirvi_a_ed.xlsx
+++ b/testdata/nirvi_a_ed.xlsx
@@ -8081,8 +8081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="A388" sqref="A388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
